--- a/Execution Providers Tester/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-04 16:04:57</t>
+          <t>2025-06-05 09:42:03</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -37,25 +37,26 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000AA44"/>
-        <bgColor rgb="0000AA44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFAA00"/>
-        <bgColor rgb="00FFAA00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DEDEDE"/>
-        <bgColor rgb="00DEDEDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004D7CFE"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,30 +69,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -185,7 +179,6 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
       <pieChart>
@@ -235,6 +228,28 @@
             <idx val="3"/>
             <spPr>
               <a:solidFill>
+                <a:srgbClr val="4D7CFE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="5"/>
+            <spPr>
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
@@ -244,12 +259,12 @@
           </dPt>
           <cat>
             <numRef>
-              <f>'Data_PieChart'!$A$2:$A$5</f>
+              <f>'Data_PieChart'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Data_PieChart'!$B$2:$B$5</f>
+              <f>'Data_PieChart'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -584,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,10 +607,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,7 +660,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>AffineGrid</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -655,19 +670,19 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sub</t>
+          <t>And</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -689,7 +704,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mul</t>
+          <t>ArgMax</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -711,7 +726,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pow</t>
+          <t>ArgMin</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -733,7 +748,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Mod</t>
+          <t>AveragePool</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -743,19 +758,19 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BitwiseAnd</t>
+          <t>BatchNormalization</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -777,7 +792,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BitwiseOr</t>
+          <t>Bernoulli</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -787,19 +802,19 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider,DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BitwiseXor</t>
+          <t>BitShift</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -821,7 +836,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>And</t>
+          <t>BitwiseAnd</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -843,7 +858,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Or</t>
+          <t>BitwiseNot</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -865,7 +880,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Xor</t>
+          <t>BitwiseOr</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -887,7 +902,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ReduceSum</t>
+          <t>BitwiseXor</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -909,7 +924,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ReduceMean</t>
+          <t>BlackmanWindow</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -919,19 +934,19 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ReduceMax</t>
+          <t>Cast</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -953,7 +968,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ReduceMin</t>
+          <t>CastLike</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -975,7 +990,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ReduceProd</t>
+          <t>CenterCropPad</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -985,19 +1000,19 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider,DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ReduceL1</t>
+          <t>Clip</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1019,7 +1034,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ReduceL2</t>
+          <t>Col2Im</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1027,21 +1042,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C20" s="1" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSum</t>
+          <t>Compress</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1051,19 +1062,19 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSumExp</t>
+          <t>Concat</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1085,7 +1096,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ReduceSumSquare</t>
+          <t>ConcatFromSequence</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1107,7 +1118,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Equal</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1115,21 +1126,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>ConstantOfShape</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1151,7 +1158,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Greater</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1161,19 +1168,19 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Less</t>
+          <t>ConvInteger</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1195,7 +1202,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GreaterOrEqual</t>
+          <t>ConvTranspose</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1205,19 +1212,19 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LessOrEqual</t>
+          <t>CumSum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1239,7 +1246,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>DFT</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1261,7 +1268,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IsNaN</t>
+          <t>DeformConv</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1269,21 +1276,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C31" s="1" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IsInf</t>
+          <t>DepthToSpace</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1305,7 +1308,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>DequantizeLinear</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1327,7 +1330,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Det</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1337,19 +1340,19 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1371,7 +1374,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Dropout</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1381,19 +1384,19 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ArgMin</t>
+          <t>DynamicQuantizeLinear</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1415,7 +1418,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ArgMax</t>
+          <t>Einsum</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1437,7 +1440,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Reshape</t>
+          <t>Equal</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1481,7 +1484,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Flatten</t>
+          <t>EyeLike</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1491,19 +1494,19 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Squeeze</t>
+          <t>Flatten</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1525,7 +1528,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Unsqueeze</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1535,19 +1538,19 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Transpose</t>
+          <t>Gather</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1569,7 +1572,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Concat</t>
+          <t>GatherElements</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1591,7 +1594,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>GatherND</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1613,7 +1616,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Slice</t>
+          <t>Gelu</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1623,19 +1626,19 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pad</t>
+          <t>Gemm</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1657,7 +1660,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Tile</t>
+          <t>GlobalAveragePool</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1667,19 +1670,19 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Gather</t>
+          <t>GlobalMaxPool</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1689,19 +1692,19 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>GatherND</t>
+          <t>Greater</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -1723,7 +1726,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>GatherElements</t>
+          <t>GreaterOrEqual</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1745,7 +1748,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>ScatterElements</t>
+          <t>GridSample</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1767,7 +1770,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>ScatterND</t>
+          <t>GroupNormalization</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1777,19 +1780,19 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CPUExecutionProvider,DmlExecutionProvider</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Gemm</t>
+          <t>HammingWindow</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -1799,19 +1802,19 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>MatMul</t>
+          <t>HannWindow</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1821,19 +1824,19 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>AveragePool</t>
+          <t>HardSigmoid</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
@@ -1855,7 +1858,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>MaxPool</t>
+          <t>HardSwish</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1865,19 +1868,19 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CPUExecutionProvider,DmlExecutionProvider</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>GlobalMaxPool</t>
+          <t>Hardmax</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
@@ -1887,19 +1890,19 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>GlobalAveragePool</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1909,19 +1912,19 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Dropout</t>
+          <t>If</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -1943,7 +1946,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BatchNormalization</t>
+          <t>ImageDecoder</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -1951,14 +1954,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C62" s="1" t="inlineStr"/>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1986,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>LayerNormalization</t>
+          <t>IsInf</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -2009,7 +2008,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>GroupNormalization</t>
+          <t>IsNaN</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
@@ -2019,19 +2018,19 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>AffineGrid</t>
+          <t>LRN</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -2041,19 +2040,19 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>GridSample</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -2075,7 +2074,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Resize</t>
+          <t>LayerNormalization</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2097,7 +2096,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Bernoulli</t>
+          <t>Less</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
@@ -2107,19 +2106,19 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BitShift</t>
+          <t>LessOrEqual</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2141,7 +2140,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>BitwiseNot</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -2151,19 +2150,19 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BlackmanWindow</t>
+          <t>LpNormalization</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2173,19 +2172,19 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Cast</t>
+          <t>LpPool</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -2195,19 +2194,19 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>CastLike</t>
+          <t>MatMul</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2229,7 +2228,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>CenterCropPad</t>
+          <t>MatMulInteger</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -2239,19 +2238,19 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Clip</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2273,7 +2272,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Col2Im</t>
+          <t>MaxPool</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -2281,17 +2280,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C77" s="1" t="inlineStr"/>
-      <c r="D77" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: </t>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Compress</t>
+          <t>MaxRoiPool</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2301,19 +2304,19 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>ConcatFromSequence</t>
+          <t>MaxUnpool</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -2323,19 +2326,19 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -2343,17 +2346,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="5" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>ConstantOfShape</t>
+          <t>MeanVarianceNormalization</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
@@ -2375,7 +2382,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>MelWeightMatrix</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -2397,7 +2404,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>ConvTranspose</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
@@ -2407,19 +2414,19 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>ConvInteger</t>
+          <t>Mod</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
@@ -2441,7 +2448,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>CumSum</t>
+          <t>Mul</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
@@ -2463,7 +2470,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>DFT</t>
+          <t>Multinomial</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2473,19 +2480,19 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>DepthToSpace</t>
+          <t>NegativeLogLikelihoodLoss</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
@@ -2500,14 +2507,14 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>DequantizeLinear</t>
+          <t>NonMaxSuppression</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -2517,19 +2524,19 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Det</t>
+          <t>NonZero</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
@@ -2539,19 +2546,19 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>DynamicQuantizeLinear</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
@@ -2573,7 +2580,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Einsum</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
@@ -2595,7 +2602,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>EyeLike</t>
+          <t>OneHot</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -2605,19 +2612,19 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>Optional</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
@@ -2639,7 +2646,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Gelu</t>
+          <t>OptionalGetElement</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -2661,7 +2668,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>HammingWindow</t>
+          <t>OptionalHasElement</t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
@@ -2683,7 +2690,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HannWindow</t>
+          <t>Or</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
@@ -2693,19 +2700,19 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HardSigmoid</t>
+          <t>PRelu</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
@@ -2715,19 +2722,19 @@
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HardSwish</t>
+          <t>Pad</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
@@ -2737,19 +2744,19 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Hardmax</t>
+          <t>Pow</t>
         </is>
       </c>
       <c r="B99" s="1" t="inlineStr">
@@ -2771,7 +2778,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>QLinearConv</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -2793,7 +2800,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>QLinearMatMul</t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
@@ -2803,19 +2810,19 @@
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LRN</t>
+          <t>QuantizeLinear</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -2837,7 +2844,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B103" s="1" t="inlineStr">
@@ -2859,7 +2866,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Loop</t>
+          <t>RandomNormal</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -2881,7 +2888,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>LpNormalization</t>
+          <t>RandomNormalLike</t>
         </is>
       </c>
       <c r="B105" s="1" t="inlineStr">
@@ -2891,19 +2898,19 @@
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>LpPool</t>
+          <t>RandomUniform</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -2925,7 +2932,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>MatMulInteger</t>
+          <t>RandomUniformLike</t>
         </is>
       </c>
       <c r="B107" s="1" t="inlineStr">
@@ -2935,19 +2942,19 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>MaxRoiPool</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
@@ -2969,7 +2976,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MaxUnpool</t>
+          <t>ReduceL1</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
@@ -2979,19 +2986,19 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MeanVarianceNormalization</t>
+          <t>ReduceL2</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
@@ -3013,7 +3020,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>MelWeightMatrix</t>
+          <t>ReduceLogSum</t>
         </is>
       </c>
       <c r="B111" s="1" t="inlineStr">
@@ -3023,19 +3030,19 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Multinomial</t>
+          <t>ReduceLogSumExp</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -3045,19 +3052,19 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NegativeLogLikelihoodLoss</t>
+          <t>ReduceMax</t>
         </is>
       </c>
       <c r="B113" s="1" t="inlineStr">
@@ -3072,14 +3079,14 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NonMaxSuppression</t>
+          <t>ReduceMean</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3089,19 +3096,19 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NonZero</t>
+          <t>ReduceMin</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
@@ -3123,7 +3130,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>OneHot</t>
+          <t>ReduceProd</t>
         </is>
       </c>
       <c r="B116" s="1" t="inlineStr">
@@ -3145,7 +3152,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Optional</t>
+          <t>ReduceSum</t>
         </is>
       </c>
       <c r="B117" s="1" t="inlineStr">
@@ -3155,19 +3162,19 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OptionalGetElement</t>
+          <t>ReduceSumSquare</t>
         </is>
       </c>
       <c r="B118" s="1" t="inlineStr">
@@ -3177,19 +3184,19 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OptionalHasElement</t>
+          <t>RegexFullMatch</t>
         </is>
       </c>
       <c r="B119" s="1" t="inlineStr">
@@ -3211,7 +3218,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>PRelu</t>
+          <t>Reshape</t>
         </is>
       </c>
       <c r="B120" s="1" t="inlineStr">
@@ -3233,7 +3240,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>QLinearConv</t>
+          <t>Resize</t>
         </is>
       </c>
       <c r="B121" s="1" t="inlineStr">
@@ -3255,7 +3262,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>QLinearMatMul</t>
+          <t>ReverseSequence</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
@@ -3277,7 +3284,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>QuantizeLinear</t>
+          <t>RoiAlign</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
@@ -3299,7 +3306,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>STFT</t>
         </is>
       </c>
       <c r="B124" s="1" t="inlineStr">
@@ -3309,19 +3316,19 @@
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>RandomNormal</t>
+          <t>Scan</t>
         </is>
       </c>
       <c r="B125" s="1" t="inlineStr">
@@ -3343,7 +3350,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RandomNormalLike</t>
+          <t>ScatterElements</t>
         </is>
       </c>
       <c r="B126" s="1" t="inlineStr">
@@ -3365,7 +3372,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>RandomUniform</t>
+          <t>ScatterND</t>
         </is>
       </c>
       <c r="B127" s="1" t="inlineStr">
@@ -3387,7 +3394,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RandomUniformLike</t>
+          <t>SequenceAt</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3397,19 +3404,19 @@
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>SequenceConstruct</t>
         </is>
       </c>
       <c r="B129" s="1" t="inlineStr">
@@ -3431,7 +3438,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>RegexFullMatch</t>
+          <t>SequenceEmpty</t>
         </is>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -3441,19 +3448,19 @@
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>ReverseSequence</t>
+          <t>SequenceErase</t>
         </is>
       </c>
       <c r="B131" s="1" t="inlineStr">
@@ -3475,7 +3482,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>RoiAlign</t>
+          <t>SequenceInsert</t>
         </is>
       </c>
       <c r="B132" s="1" t="inlineStr">
@@ -3497,7 +3504,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>STFT</t>
+          <t>SequenceLength</t>
         </is>
       </c>
       <c r="B133" s="1" t="inlineStr">
@@ -3519,7 +3526,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Scan</t>
+          <t>SequenceMap</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
@@ -3529,19 +3536,19 @@
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CPUExecutionProvider,DmlExecutionProvider</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SequenceAt</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B135" s="1" t="inlineStr">
@@ -3549,21 +3556,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C135" s="1" t="inlineStr"/>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>SequenceConstruct</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="B136" s="1" t="inlineStr">
@@ -3585,7 +3588,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>SequenceEmpty</t>
+          <t>Slice</t>
         </is>
       </c>
       <c r="B137" s="1" t="inlineStr">
@@ -3607,7 +3610,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>SequenceErase</t>
+          <t>SoftmaxCrossEntropyLoss</t>
         </is>
       </c>
       <c r="B138" s="1" t="inlineStr">
@@ -3622,14 +3625,14 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>SequenceInsert</t>
+          <t>SpaceToDepth</t>
         </is>
       </c>
       <c r="B139" s="1" t="inlineStr">
@@ -3651,7 +3654,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>SequenceLength</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="B140" s="1" t="inlineStr">
@@ -3673,7 +3676,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SequenceMap</t>
+          <t>SplitToSequence</t>
         </is>
       </c>
       <c r="B141" s="1" t="inlineStr">
@@ -3683,19 +3686,19 @@
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DmlExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Squeeze</t>
         </is>
       </c>
       <c r="B142" s="1" t="inlineStr">
@@ -3703,17 +3706,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C142" s="1" t="inlineStr"/>
-      <c r="D142" s="5" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>StringConcat</t>
         </is>
       </c>
       <c r="B143" s="1" t="inlineStr">
@@ -3723,19 +3730,19 @@
       </c>
       <c r="C143" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>SoftmaxCrossEntropyLoss</t>
+          <t>StringNormalizer</t>
         </is>
       </c>
       <c r="B144" s="1" t="inlineStr">
@@ -3745,19 +3752,19 @@
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>SpaceToDepth</t>
+          <t>StringSplit</t>
         </is>
       </c>
       <c r="B145" s="1" t="inlineStr">
@@ -3767,19 +3774,19 @@
       </c>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>SplitToSequence</t>
+          <t>Sub</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
@@ -3789,19 +3796,19 @@
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>StringConcat</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="B147" s="1" t="inlineStr">
@@ -3811,19 +3818,19 @@
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D147" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>StringNormalizer</t>
+          <t>TfIdfVectorizer</t>
         </is>
       </c>
       <c r="B148" s="1" t="inlineStr">
@@ -3845,7 +3852,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>StringSplit</t>
+          <t>Tile</t>
         </is>
       </c>
       <c r="B149" s="1" t="inlineStr">
@@ -3855,12 +3862,12 @@
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3896,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Trilu</t>
+          <t>Transpose</t>
         </is>
       </c>
       <c r="B151" s="1" t="inlineStr">
@@ -3911,7 +3918,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Unique</t>
+          <t>Trilu</t>
         </is>
       </c>
       <c r="B152" s="1" t="inlineStr">
@@ -3921,34 +3928,2325 @@
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
+          <t>Unique</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Unsqueeze</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
           <t>Where</t>
         </is>
       </c>
-      <c r="B153" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C153" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>Xor</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Attention</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.AttnLSTM</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C158" s="1" t="inlineStr"/>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BeamSearch</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C159" s="1" t="inlineStr"/>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasAdd</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasDropout</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr"/>
+      <c r="D161" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasGelu</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSoftmax</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr"/>
+      <c r="D163" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSplitGelu</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BifurcationDetector</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskBiasDropout</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr"/>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskDropout</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr"/>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CDist</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMul</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr"/>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMulConj</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr"/>
+      <c r="D170" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderAttention</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C174" s="1" t="inlineStr"/>
+      <c r="D174" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C176" s="1" t="inlineStr"/>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeBFP</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C177" s="1" t="inlineStr"/>
+      <c r="D177" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeLinear</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C179" s="1" t="inlineStr"/>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C180" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicTimeWarping</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.EmbedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ExpandDims</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FastGelu</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedConv</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedGemm</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMul</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMulActivation</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr"/>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatedRelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr"/>
+      <c r="D190" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherBlockQuantized</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr"/>
+      <c r="D191" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherND</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Gelu</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFastGelu</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr"/>
+      <c r="D194" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFloat8</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr"/>
+      <c r="D195" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr"/>
+      <c r="D196" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GreedySearch</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C197" s="1" t="inlineStr"/>
+      <c r="D197" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GridSample</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C198" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupNorm</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupQueryAttention</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C200" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Inverse</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Irfft</t>
+        </is>
+      </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C202" s="1" t="inlineStr"/>
+      <c r="D202" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.LongformerAttention</t>
+        </is>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C203" s="1" t="inlineStr"/>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulBnb4</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulFpQ4</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="inlineStr"/>
+      <c r="D205" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: D:\a\_work\1\s\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulInteger16</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulNBits</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MaxpoolWithMask</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MoE</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C210" s="1" t="inlineStr"/>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MulInteger</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="inlineStr"/>
+      <c r="D211" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MurmurHash3</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NGramRepeatBlock</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcConv</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcFusedConv</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C216" s="1" t="inlineStr"/>
+      <c r="D216" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcMaxPool</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D217" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.PackedAttention</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="inlineStr"/>
+      <c r="D218" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C219" s="1" t="inlineStr"/>
+      <c r="D219" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Pad</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QAttention</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr"/>
+      <c r="D221" s="4" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QGemm</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearAdd</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearAveragePool</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConcat</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConv</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearLeakyRelu</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C228" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearMul</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C229" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearReduceMean</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="inlineStr"/>
+      <c r="D230" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSigmoid</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSoftmax</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearWhere</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QMoE</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C234" s="1" t="inlineStr"/>
+      <c r="D234" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedAttention</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr"/>
+      <c r="D235" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedGelu</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="inlineStr"/>
+      <c r="D236" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="inlineStr"/>
+      <c r="D237" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="inlineStr"/>
+      <c r="D238" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedMatMul</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr"/>
+      <c r="D239" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeBFP</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="inlineStr"/>
+      <c r="D240" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeLinear</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="inlineStr"/>
+      <c r="D242" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuickGelu</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Range</t>
+        </is>
+      </c>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ReduceSumInteger</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="inlineStr"/>
+      <c r="D245" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C246" s="1" t="inlineStr"/>
+      <c r="D246" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RemovePadding</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="inlineStr"/>
+      <c r="D247" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RestorePadding</t>
+        </is>
+      </c>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C248" s="1" t="inlineStr"/>
+      <c r="D248" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Rfft</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C249" s="1" t="inlineStr"/>
+      <c r="D249" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SampleOp</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Sampling</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C252" s="1" t="inlineStr"/>
+      <c r="D252" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: </t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipGroupNorm</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C253" s="1" t="inlineStr"/>
+      <c r="D253" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C254" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Snpe</t>
+        </is>
+      </c>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C256" s="1" t="inlineStr"/>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseAttention</t>
+        </is>
+      </c>
+      <c r="B257" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C257" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D257" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseToDenseMatMul</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D258" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Tokenizer</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C259" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D259" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TorchEmbedding</t>
+        </is>
+      </c>
+      <c r="B260" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C260" s="1" t="inlineStr"/>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TransposeMatMul</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C261" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Trilu</t>
+        </is>
+      </c>
+      <c r="B262" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.UnfoldTensor</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C263" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D263" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Unique</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C264" s="1" t="inlineStr"/>
+      <c r="D264" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.WhisperBeamSearch</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="inlineStr"/>
+      <c r="D265" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.WordConvEmbedding</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C266" s="1" t="inlineStr"/>
+      <c r="D266" s="4" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
@@ -3964,7 +6262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4001,10 +6299,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C2" t="n">
-        <v>65.8</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="3">
@@ -4014,10 +6312,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="4">
@@ -4030,31 +6328,57 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>NOT TESTED</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>45</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Report generated on</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-06-05 09:42:03</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-06 17:56:42</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,14 +800,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider,DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniformLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1275,7 @@
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2170,14 +2166,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C72" s="1" t="inlineStr"/>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LpNormalization(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2302,14 +2294,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MaxRoiPool(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2478,14 +2466,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C86" s="1" t="inlineStr"/>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Multinomial(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2874,14 +2858,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C104" s="1" t="inlineStr"/>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomNormal(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2896,14 +2876,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C105" s="1" t="inlineStr"/>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomNormalLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2918,14 +2894,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C106" s="1" t="inlineStr"/>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniform(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2940,14 +2912,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C107" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C107" s="1" t="inlineStr"/>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniformLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -3292,14 +3260,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C123" s="1" t="inlineStr"/>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RoiAlign(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4014,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.AttnLSTM</t>
+          <t>com.microsoft.BeamSearch</t>
         </is>
       </c>
       <c r="B158" s="1" t="inlineStr">
@@ -4061,14 +4025,14 @@
       <c r="C158" s="1" t="inlineStr"/>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>FAIL (skipped: known crash)</t>
+          <t xml:space="preserve">FAIL run: </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BeamSearch</t>
+          <t>com.microsoft.BiasAdd</t>
         </is>
       </c>
       <c r="B159" s="1" t="inlineStr">
@@ -4076,17 +4040,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C159" s="1" t="inlineStr"/>
-      <c r="D159" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: </t>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasAdd</t>
+          <t>com.microsoft.BiasDropout</t>
         </is>
       </c>
       <c r="B160" s="1" t="inlineStr">
@@ -4094,21 +4062,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C160" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C160" s="1" t="inlineStr"/>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasDropout</t>
+          <t>com.microsoft.BiasGelu</t>
         </is>
       </c>
       <c r="B161" s="1" t="inlineStr">
@@ -4116,17 +4080,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C161" s="1" t="inlineStr"/>
-      <c r="D161" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasGelu</t>
+          <t>com.microsoft.BiasSoftmax</t>
         </is>
       </c>
       <c r="B162" s="1" t="inlineStr">
@@ -4134,21 +4102,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C162" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C162" s="1" t="inlineStr"/>
+      <c r="D162" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSoftmax</t>
+          <t>com.microsoft.BiasSplitGelu</t>
         </is>
       </c>
       <c r="B163" s="1" t="inlineStr">
@@ -4156,17 +4120,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C163" s="1" t="inlineStr"/>
-      <c r="D163" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSplitGelu</t>
+          <t>com.microsoft.BifurcationDetector</t>
         </is>
       </c>
       <c r="B164" s="1" t="inlineStr">
@@ -4176,19 +4144,19 @@
       </c>
       <c r="C164" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BifurcationDetector</t>
+          <t>com.microsoft.BitmaskBiasDropout</t>
         </is>
       </c>
       <c r="B165" s="1" t="inlineStr">
@@ -4196,21 +4164,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C165" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C165" s="1" t="inlineStr"/>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskBiasDropout</t>
+          <t>com.microsoft.BitmaskDropout</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
@@ -4221,14 +4185,14 @@
       <c r="C166" s="1" t="inlineStr"/>
       <c r="D166" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskDropout</t>
+          <t>com.microsoft.CDist</t>
         </is>
       </c>
       <c r="B167" s="1" t="inlineStr">
@@ -4236,17 +4200,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C167" s="1" t="inlineStr"/>
-      <c r="D167" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CDist</t>
+          <t>com.microsoft.ComplexMul</t>
         </is>
       </c>
       <c r="B168" s="1" t="inlineStr">
@@ -4254,21 +4222,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C168" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D168" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C168" s="1" t="inlineStr"/>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMul</t>
+          <t>com.microsoft.ComplexMulConj</t>
         </is>
       </c>
       <c r="B169" s="1" t="inlineStr">
@@ -4279,14 +4243,14 @@
       <c r="C169" s="1" t="inlineStr"/>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMulConj</t>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -4294,17 +4258,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C170" s="1" t="inlineStr"/>
-      <c r="D170" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+          <t>com.microsoft.CropAndResize</t>
         </is>
       </c>
       <c r="B171" s="1" t="inlineStr">
@@ -4314,19 +4282,19 @@
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>com.microsoft.DecoderAttention</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
@@ -4334,21 +4302,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C172" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D172" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C172" s="1" t="inlineStr"/>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B173" s="1" t="inlineStr">
@@ -4370,7 +4334,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderAttention</t>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
         </is>
       </c>
       <c r="B174" s="1" t="inlineStr">
@@ -4381,14 +4345,14 @@
       <c r="C174" s="1" t="inlineStr"/>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+          <t>com.microsoft.DequantizeBFP</t>
         </is>
       </c>
       <c r="B175" s="1" t="inlineStr">
@@ -4396,21 +4360,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C175" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D175" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C175" s="1" t="inlineStr"/>
+      <c r="D175" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+          <t>com.microsoft.DequantizeLinear</t>
         </is>
       </c>
       <c r="B176" s="1" t="inlineStr">
@@ -4418,17 +4378,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C176" s="1" t="inlineStr"/>
-      <c r="D176" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeBFP</t>
+          <t>com.microsoft.DequantizeWithOrder</t>
         </is>
       </c>
       <c r="B177" s="1" t="inlineStr">
@@ -4439,14 +4403,14 @@
       <c r="C177" s="1" t="inlineStr"/>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeLinear</t>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
         </is>
       </c>
       <c r="B178" s="1" t="inlineStr">
@@ -4456,19 +4420,19 @@
       </c>
       <c r="C178" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeWithOrder</t>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
         </is>
       </c>
       <c r="B179" s="1" t="inlineStr">
@@ -4476,17 +4440,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C179" s="1" t="inlineStr"/>
-      <c r="D179" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeLSTM</t>
+          <t>com.microsoft.DynamicTimeWarping</t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
@@ -4508,7 +4476,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeMatMul</t>
+          <t>com.microsoft.EmbedLayerNormalization</t>
         </is>
       </c>
       <c r="B181" s="1" t="inlineStr">
@@ -4530,7 +4498,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicTimeWarping</t>
+          <t>com.microsoft.ExpandDims</t>
         </is>
       </c>
       <c r="B182" s="1" t="inlineStr">
@@ -4552,7 +4520,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.EmbedLayerNormalization</t>
+          <t>com.microsoft.FastGelu</t>
         </is>
       </c>
       <c r="B183" s="1" t="inlineStr">
@@ -4574,7 +4542,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ExpandDims</t>
+          <t>com.microsoft.FusedConv</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -4596,7 +4564,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FastGelu</t>
+          <t>com.microsoft.FusedGemm</t>
         </is>
       </c>
       <c r="B185" s="1" t="inlineStr">
@@ -4606,19 +4574,19 @@
       </c>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedConv</t>
+          <t>com.microsoft.FusedMatMul</t>
         </is>
       </c>
       <c r="B186" s="1" t="inlineStr">
@@ -4628,19 +4596,19 @@
       </c>
       <c r="C186" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D186" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedGemm</t>
+          <t>com.microsoft.FusedMatMulActivation</t>
         </is>
       </c>
       <c r="B187" s="1" t="inlineStr">
@@ -4648,21 +4616,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C187" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C187" s="1" t="inlineStr"/>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMul</t>
+          <t>com.microsoft.GatedRelativePositionBias</t>
         </is>
       </c>
       <c r="B188" s="1" t="inlineStr">
@@ -4670,21 +4634,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C188" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C188" s="1" t="inlineStr"/>
+      <c r="D188" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMulActivation</t>
+          <t>com.microsoft.GatherBlockQuantized</t>
         </is>
       </c>
       <c r="B189" s="1" t="inlineStr">
@@ -4702,7 +4662,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatedRelativePositionBias</t>
+          <t>com.microsoft.GatherND</t>
         </is>
       </c>
       <c r="B190" s="1" t="inlineStr">
@@ -4710,17 +4670,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C190" s="1" t="inlineStr"/>
-      <c r="D190" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherBlockQuantized</t>
+          <t>com.microsoft.Gelu</t>
         </is>
       </c>
       <c r="B191" s="1" t="inlineStr">
@@ -4728,17 +4692,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C191" s="1" t="inlineStr"/>
-      <c r="D191" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherND</t>
+          <t>com.microsoft.GemmFastGelu</t>
         </is>
       </c>
       <c r="B192" s="1" t="inlineStr">
@@ -4746,21 +4714,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C192" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D192" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C192" s="1" t="inlineStr"/>
+      <c r="D192" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Gelu</t>
+          <t>com.microsoft.GemmFloat8</t>
         </is>
       </c>
       <c r="B193" s="1" t="inlineStr">
@@ -4768,21 +4732,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C193" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C193" s="1" t="inlineStr"/>
+      <c r="D193" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFastGelu</t>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
         </is>
       </c>
       <c r="B194" s="1" t="inlineStr">
@@ -4793,14 +4753,14 @@
       <c r="C194" s="1" t="inlineStr"/>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFloat8</t>
+          <t>com.microsoft.GreedySearch</t>
         </is>
       </c>
       <c r="B195" s="1" t="inlineStr">
@@ -4809,16 +4769,16 @@
         </is>
       </c>
       <c r="C195" s="1" t="inlineStr"/>
-      <c r="D195" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
+      <c r="D195" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmaRotaryEmbedding</t>
+          <t>com.microsoft.GridSample</t>
         </is>
       </c>
       <c r="B196" s="1" t="inlineStr">
@@ -4826,17 +4786,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C196" s="1" t="inlineStr"/>
-      <c r="D196" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GreedySearch</t>
+          <t>com.microsoft.GroupNorm</t>
         </is>
       </c>
       <c r="B197" s="1" t="inlineStr">
@@ -4844,17 +4808,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C197" s="1" t="inlineStr"/>
-      <c r="D197" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C197" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GridSample</t>
+          <t>com.microsoft.GroupQueryAttention</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -4864,19 +4832,19 @@
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D198" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupNorm</t>
+          <t>com.microsoft.Inverse</t>
         </is>
       </c>
       <c r="B199" s="1" t="inlineStr">
@@ -4886,19 +4854,19 @@
       </c>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupQueryAttention</t>
+          <t>com.microsoft.Irfft</t>
         </is>
       </c>
       <c r="B200" s="1" t="inlineStr">
@@ -4906,21 +4874,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C200" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C200" s="1" t="inlineStr"/>
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Inverse</t>
+          <t>com.microsoft.LongformerAttention</t>
         </is>
       </c>
       <c r="B201" s="1" t="inlineStr">
@@ -4928,21 +4892,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C201" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C201" s="1" t="inlineStr"/>
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Irfft</t>
+          <t>com.microsoft.MatMulBnb4</t>
         </is>
       </c>
       <c r="B202" s="1" t="inlineStr">
@@ -4950,17 +4910,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C202" s="1" t="inlineStr"/>
-      <c r="D202" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.LongformerAttention</t>
+          <t>com.microsoft.MatMulFpQ4</t>
         </is>
       </c>
       <c r="B203" s="1" t="inlineStr">
@@ -4971,14 +4935,15 @@
       <c r="C203" s="1" t="inlineStr"/>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: D:\a\_work\1\s\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulBnb4</t>
+          <t>com.microsoft.MatMulInteger16</t>
         </is>
       </c>
       <c r="B204" s="1" t="inlineStr">
@@ -5000,7 +4965,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulFpQ4</t>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
         </is>
       </c>
       <c r="B205" s="1" t="inlineStr">
@@ -5008,18 +4973,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C205" s="1" t="inlineStr"/>
-      <c r="D205" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: D:\a\_work\1\s\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
-</t>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulInteger16</t>
+          <t>com.microsoft.MatMulNBits</t>
         </is>
       </c>
       <c r="B206" s="1" t="inlineStr">
@@ -5029,19 +4997,19 @@
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D206" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulIntegerToFloat</t>
+          <t>com.microsoft.MaxpoolWithMask</t>
         </is>
       </c>
       <c r="B207" s="1" t="inlineStr">
@@ -5051,19 +5019,19 @@
       </c>
       <c r="C207" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulNBits</t>
+          <t>com.microsoft.MoE</t>
         </is>
       </c>
       <c r="B208" s="1" t="inlineStr">
@@ -5071,21 +5039,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C208" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C208" s="1" t="inlineStr"/>
+      <c r="D208" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MaxpoolWithMask</t>
+          <t>com.microsoft.MulInteger</t>
         </is>
       </c>
       <c r="B209" s="1" t="inlineStr">
@@ -5093,21 +5057,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C209" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D209" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C209" s="1" t="inlineStr"/>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MoE</t>
+          <t>com.microsoft.MultiHeadAttention</t>
         </is>
       </c>
       <c r="B210" s="1" t="inlineStr">
@@ -5115,17 +5075,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C210" s="1" t="inlineStr"/>
-      <c r="D210" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
+      <c r="C210" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MulInteger</t>
+          <t>com.microsoft.MurmurHash3</t>
         </is>
       </c>
       <c r="B211" s="1" t="inlineStr">
@@ -5133,17 +5097,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C211" s="1" t="inlineStr"/>
-      <c r="D211" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MultiHeadAttention</t>
+          <t>com.microsoft.NGramRepeatBlock</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -5153,19 +5121,19 @@
       </c>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MurmurHash3</t>
+          <t>com.microsoft.NhwcConv</t>
         </is>
       </c>
       <c r="B213" s="1" t="inlineStr">
@@ -5175,19 +5143,19 @@
       </c>
       <c r="C213" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D213" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NGramRepeatBlock</t>
+          <t>com.microsoft.NhwcFusedConv</t>
         </is>
       </c>
       <c r="B214" s="1" t="inlineStr">
@@ -5195,21 +5163,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C214" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D214" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C214" s="1" t="inlineStr"/>
+      <c r="D214" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcConv</t>
+          <t>com.microsoft.NhwcMaxPool</t>
         </is>
       </c>
       <c r="B215" s="1" t="inlineStr">
@@ -5219,19 +5183,19 @@
       </c>
       <c r="C215" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcFusedConv</t>
+          <t>com.microsoft.PackedAttention</t>
         </is>
       </c>
       <c r="B216" s="1" t="inlineStr">
@@ -5240,16 +5204,16 @@
         </is>
       </c>
       <c r="C216" s="1" t="inlineStr"/>
-      <c r="D216" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcMaxPool</t>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B217" s="1" t="inlineStr">
@@ -5257,21 +5221,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C217" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D217" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C217" s="1" t="inlineStr"/>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.PackedAttention</t>
+          <t>com.microsoft.Pad</t>
         </is>
       </c>
       <c r="B218" s="1" t="inlineStr">
@@ -5279,17 +5239,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C218" s="1" t="inlineStr"/>
-      <c r="D218" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.PackedMultiHeadAttention</t>
+          <t>com.microsoft.QAttention</t>
         </is>
       </c>
       <c r="B219" s="1" t="inlineStr">
@@ -5300,14 +5264,14 @@
       <c r="C219" s="1" t="inlineStr"/>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
+          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Pad</t>
+          <t>com.microsoft.QGemm</t>
         </is>
       </c>
       <c r="B220" s="1" t="inlineStr">
@@ -5329,7 +5293,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QAttention</t>
+          <t>com.microsoft.QLinearAdd</t>
         </is>
       </c>
       <c r="B221" s="1" t="inlineStr">
@@ -5337,17 +5301,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C221" s="1" t="inlineStr"/>
-      <c r="D221" s="4" t="inlineStr">
-        <is>
-          <t>FAIL (skipped: known crash)</t>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QGemm</t>
+          <t>com.microsoft.QLinearAveragePool</t>
         </is>
       </c>
       <c r="B222" s="1" t="inlineStr">
@@ -5357,19 +5325,19 @@
       </c>
       <c r="C222" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearAdd</t>
+          <t>com.microsoft.QLinearConcat</t>
         </is>
       </c>
       <c r="B223" s="1" t="inlineStr">
@@ -5391,7 +5359,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearAveragePool</t>
+          <t>com.microsoft.QLinearConv</t>
         </is>
       </c>
       <c r="B224" s="1" t="inlineStr">
@@ -5401,19 +5369,19 @@
       </c>
       <c r="C224" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearConcat</t>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
         </is>
       </c>
       <c r="B225" s="1" t="inlineStr">
@@ -5435,7 +5403,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearConv</t>
+          <t>com.microsoft.QLinearLeakyRelu</t>
         </is>
       </c>
       <c r="B226" s="1" t="inlineStr">
@@ -5457,7 +5425,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearGlobalAveragePool</t>
+          <t>com.microsoft.QLinearMul</t>
         </is>
       </c>
       <c r="B227" s="1" t="inlineStr">
@@ -5467,19 +5435,19 @@
       </c>
       <c r="C227" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D227" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearLeakyRelu</t>
+          <t>com.microsoft.QLinearReduceMean</t>
         </is>
       </c>
       <c r="B228" s="1" t="inlineStr">
@@ -5487,21 +5455,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C228" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D228" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C228" s="1" t="inlineStr"/>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearMul</t>
+          <t>com.microsoft.QLinearSigmoid</t>
         </is>
       </c>
       <c r="B229" s="1" t="inlineStr">
@@ -5511,19 +5475,19 @@
       </c>
       <c r="C229" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearReduceMean</t>
+          <t>com.microsoft.QLinearSoftmax</t>
         </is>
       </c>
       <c r="B230" s="1" t="inlineStr">
@@ -5531,17 +5495,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C230" s="1" t="inlineStr"/>
-      <c r="D230" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearSigmoid</t>
+          <t>com.microsoft.QLinearWhere</t>
         </is>
       </c>
       <c r="B231" s="1" t="inlineStr">
@@ -5551,19 +5519,19 @@
       </c>
       <c r="C231" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearSoftmax</t>
+          <t>com.microsoft.QMoE</t>
         </is>
       </c>
       <c r="B232" s="1" t="inlineStr">
@@ -5571,21 +5539,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C232" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D232" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C232" s="1" t="inlineStr"/>
+      <c r="D232" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearWhere</t>
+          <t>com.microsoft.QOrderedAttention</t>
         </is>
       </c>
       <c r="B233" s="1" t="inlineStr">
@@ -5593,21 +5557,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C233" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D233" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C233" s="1" t="inlineStr"/>
+      <c r="D233" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QMoE</t>
+          <t>com.microsoft.QOrderedGelu</t>
         </is>
       </c>
       <c r="B234" s="1" t="inlineStr">
@@ -5618,14 +5578,14 @@
       <c r="C234" s="1" t="inlineStr"/>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedAttention</t>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
         </is>
       </c>
       <c r="B235" s="1" t="inlineStr">
@@ -5634,16 +5594,16 @@
         </is>
       </c>
       <c r="C235" s="1" t="inlineStr"/>
-      <c r="D235" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="D235" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedGelu</t>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
         </is>
       </c>
       <c r="B236" s="1" t="inlineStr">
@@ -5654,14 +5614,14 @@
       <c r="C236" s="1" t="inlineStr"/>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedLayerNormalization</t>
+          <t>com.microsoft.QOrderedMatMul</t>
         </is>
       </c>
       <c r="B237" s="1" t="inlineStr">
@@ -5670,16 +5630,16 @@
         </is>
       </c>
       <c r="C237" s="1" t="inlineStr"/>
-      <c r="D237" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
+      <c r="D237" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedLongformerAttention</t>
+          <t>com.microsoft.QuantizeBFP</t>
         </is>
       </c>
       <c r="B238" s="1" t="inlineStr">
@@ -5690,14 +5650,14 @@
       <c r="C238" s="1" t="inlineStr"/>
       <c r="D238" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedMatMul</t>
+          <t>com.microsoft.QuantizeLinear</t>
         </is>
       </c>
       <c r="B239" s="1" t="inlineStr">
@@ -5705,17 +5665,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C239" s="1" t="inlineStr"/>
-      <c r="D239" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeBFP</t>
+          <t>com.microsoft.QuantizeWithOrder</t>
         </is>
       </c>
       <c r="B240" s="1" t="inlineStr">
@@ -5726,14 +5690,14 @@
       <c r="C240" s="1" t="inlineStr"/>
       <c r="D240" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeLinear</t>
+          <t>com.microsoft.QuickGelu</t>
         </is>
       </c>
       <c r="B241" s="1" t="inlineStr">
@@ -5755,7 +5719,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeWithOrder</t>
+          <t>com.microsoft.Range</t>
         </is>
       </c>
       <c r="B242" s="1" t="inlineStr">
@@ -5763,17 +5727,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C242" s="1" t="inlineStr"/>
-      <c r="D242" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
+      <c r="C242" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D242" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuickGelu</t>
+          <t>com.microsoft.ReduceSumInteger</t>
         </is>
       </c>
       <c r="B243" s="1" t="inlineStr">
@@ -5781,21 +5749,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C243" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D243" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C243" s="1" t="inlineStr"/>
+      <c r="D243" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Range</t>
+          <t>com.microsoft.RelativePositionBias</t>
         </is>
       </c>
       <c r="B244" s="1" t="inlineStr">
@@ -5803,21 +5767,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C244" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C244" s="1" t="inlineStr"/>
+      <c r="D244" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ReduceSumInteger</t>
+          <t>com.microsoft.RemovePadding</t>
         </is>
       </c>
       <c r="B245" s="1" t="inlineStr">
@@ -5828,14 +5788,14 @@
       <c r="C245" s="1" t="inlineStr"/>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RelativePositionBias</t>
+          <t>com.microsoft.RestorePadding</t>
         </is>
       </c>
       <c r="B246" s="1" t="inlineStr">
@@ -5846,14 +5806,14 @@
       <c r="C246" s="1" t="inlineStr"/>
       <c r="D246" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RemovePadding</t>
+          <t>com.microsoft.Rfft</t>
         </is>
       </c>
       <c r="B247" s="1" t="inlineStr">
@@ -5864,14 +5824,14 @@
       <c r="C247" s="1" t="inlineStr"/>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RestorePadding</t>
+          <t>com.microsoft.RotaryEmbedding</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
@@ -5879,17 +5839,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C248" s="1" t="inlineStr"/>
-      <c r="D248" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Rfft</t>
+          <t>com.microsoft.SampleOp</t>
         </is>
       </c>
       <c r="B249" s="1" t="inlineStr">
@@ -5897,17 +5861,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C249" s="1" t="inlineStr"/>
-      <c r="D249" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
+      <c r="C249" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RotaryEmbedding</t>
+          <t>com.microsoft.Sampling</t>
         </is>
       </c>
       <c r="B250" s="1" t="inlineStr">
@@ -5915,21 +5883,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C250" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C250" s="1" t="inlineStr"/>
+      <c r="D250" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SampleOp</t>
+          <t>com.microsoft.SkipGroupNorm</t>
         </is>
       </c>
       <c r="B251" s="1" t="inlineStr">
@@ -5937,21 +5901,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C251" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C251" s="1" t="inlineStr"/>
+      <c r="D251" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Sampling</t>
+          <t>com.microsoft.SkipLayerNormalization</t>
         </is>
       </c>
       <c r="B252" s="1" t="inlineStr">
@@ -5959,17 +5919,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C252" s="1" t="inlineStr"/>
-      <c r="D252" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: </t>
+      <c r="C252" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipGroupNorm</t>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
         </is>
       </c>
       <c r="B253" s="1" t="inlineStr">
@@ -5977,17 +5941,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C253" s="1" t="inlineStr"/>
-      <c r="D253" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>DmlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipLayerNormalization</t>
+          <t>com.microsoft.Snpe</t>
         </is>
       </c>
       <c r="B254" s="1" t="inlineStr">
@@ -5995,21 +5963,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C254" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C254" s="1" t="inlineStr"/>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+          <t>com.microsoft.SparseAttention</t>
         </is>
       </c>
       <c r="B255" s="1" t="inlineStr">
@@ -6019,19 +5983,19 @@
       </c>
       <c r="C255" s="1" t="inlineStr">
         <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D255" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Snpe</t>
+          <t>com.microsoft.SparseToDenseMatMul</t>
         </is>
       </c>
       <c r="B256" s="1" t="inlineStr">
@@ -6039,17 +6003,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C256" s="1" t="inlineStr"/>
-      <c r="D256" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+      <c r="C256" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D256" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseAttention</t>
+          <t>com.microsoft.Tokenizer</t>
         </is>
       </c>
       <c r="B257" s="1" t="inlineStr">
@@ -6071,7 +6039,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseToDenseMatMul</t>
+          <t>com.microsoft.TorchEmbedding</t>
         </is>
       </c>
       <c r="B258" s="1" t="inlineStr">
@@ -6079,21 +6047,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C258" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D258" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C258" s="1" t="inlineStr"/>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Tokenizer</t>
+          <t>com.microsoft.TransposeMatMul</t>
         </is>
       </c>
       <c r="B259" s="1" t="inlineStr">
@@ -6115,7 +6079,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TorchEmbedding</t>
+          <t>com.microsoft.Trilu</t>
         </is>
       </c>
       <c r="B260" s="1" t="inlineStr">
@@ -6123,17 +6087,21 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C260" s="1" t="inlineStr"/>
-      <c r="D260" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+      <c r="C260" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D260" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TransposeMatMul</t>
+          <t>com.microsoft.UnfoldTensor</t>
         </is>
       </c>
       <c r="B261" s="1" t="inlineStr">
@@ -6155,7 +6123,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Trilu</t>
+          <t>com.microsoft.Unique</t>
         </is>
       </c>
       <c r="B262" s="1" t="inlineStr">
@@ -6163,21 +6131,17 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C262" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D262" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C262" s="1" t="inlineStr"/>
+      <c r="D262" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.UnfoldTensor</t>
+          <t>com.microsoft.WhisperBeamSearch</t>
         </is>
       </c>
       <c r="B263" s="1" t="inlineStr">
@@ -6185,68 +6149,10 @@
           <t>DmlExecutionProvider</t>
         </is>
       </c>
-      <c r="C263" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D263" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.Unique</t>
-        </is>
-      </c>
-      <c r="B264" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C264" s="1" t="inlineStr"/>
-      <c r="D264" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.WhisperBeamSearch</t>
-        </is>
-      </c>
-      <c r="B265" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C265" s="1" t="inlineStr"/>
-      <c r="D265" s="6" t="inlineStr">
+      <c r="C263" s="1" t="inlineStr"/>
+      <c r="D263" s="6" t="inlineStr">
         <is>
           <t>NOT TESTED (model unavailable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.WordConvEmbedding</t>
-        </is>
-      </c>
-      <c r="B266" s="1" t="inlineStr">
-        <is>
-          <t>DmlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C266" s="1" t="inlineStr"/>
-      <c r="D266" s="4" t="inlineStr">
-        <is>
-          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
@@ -6299,10 +6205,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" t="n">
-        <v>47.9</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="3">
@@ -6312,10 +6218,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>31.7</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="4">
@@ -6341,7 +6247,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -6364,10 +6270,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="8">
@@ -6378,7 +6284,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-06 17:56:42</t>
+          <t>2025-07-11 10:42:31</t>
         </is>
       </c>
     </row>
